--- a/Test Case Report/OWASP_Test_Case_Report_by_johnpritombiswas.xlsx
+++ b/Test Case Report/OWASP_Test_Case_Report_by_johnpritombiswas.xlsx
@@ -1002,7 +1002,7 @@
         <v>14</v>
       </c>
       <c r="B19" s="15">
-        <v>45033.0</v>
+        <v>45947.0</v>
       </c>
       <c r="C19" s="8"/>
       <c r="D19" s="8"/>
